--- a/Code/log.xlsx
+++ b/Code/log.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -345,13 +344,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="34.7109375" customWidth="1" min="1" max="1"/>
+    <col width="17.140625" customWidth="1" min="2" max="2"/>
+    <col width="176.5703125" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -367,6 +371,23 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mon - 28 Jun 2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>18:10:42</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TEST: buy BTCEUR and sell at 28465.322719 and 28788.328572, accuracy = 0.016204</t>
         </is>
       </c>
     </row>

--- a/Code/log.xlsx
+++ b/Code/log.xlsx
@@ -344,13 +344,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="34.7109375" customWidth="1" min="1" max="1"/>
     <col width="17.140625" customWidth="1" min="2" max="2"/>
@@ -391,6 +391,414 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12:36:11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.207595 and 0.213707, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12:41:29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TEST: buy LTCEUR and sell at 127.669340 and 130.651609, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12:45:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.085675 and 0.088407, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12:50:17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TEST: buy ADAEUR and sell at 1.220434 and 1.251413, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:54:53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TEST: buy ETHEUR and sell at 2516.119827 and 2598.871533, accuracy = 0.118056</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:00:48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TEST: buy BTCEUR and sell at 37388.699648 and 38524.820768, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13:05:14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.209132 and 0.217235, accuracy = 0.111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13:10:56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TEST: buy LTCEUR and sell at 127.858298 and 131.392004, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13:16:06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.087746 and 0.089575, accuracy = 0.108796</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13:20:41</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TEST: buy ADAEUR and sell at 1.236379 and 1.250486, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13:25:09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TEST: buy ETHEUR and sell at 2552.005158 and 2630.310824, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13:36:08</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.213032 and 0.217691, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13:46:49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.088564 and 0.089909, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13:56:35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TEST: buy ETHEUR and sell at 2607.041719 and 2645.497287, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14:02:01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TEST: buy BTCEUR and sell at 38386.191524 and 38982.425888, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14:05:44</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.215336 and 0.220704, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14:15:01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.088430 and 0.090401, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14:25:03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TEST: buy ETHEUR and sell at 2602.056929 and 2680.875531, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14:37:24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.217335 and 0.224761, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14:41:26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TEST: buy LTCEUR and sell at 130.663569 and 132.165522, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14:45:36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.089596 and 0.091079, accuracy = 0.106481</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14:56:59</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TEST: buy ETHEUR and sell at 2644.060627 and 2686.788655, accuracy = 0.101852</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15:06:46</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TEST: buy DOGEEUR and sell at 0.219547 and 0.223294, accuracy = 0.104167</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mon - 09 Aug 2021</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15:47:49</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TEST: buy VETEUR and sell at 0.088702 and 0.090234, accuracy = 0.108796</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
